--- a/data/data_es.xlsx
+++ b/data/data_es.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cox et al,, 2009</t>
+          <t>Cox et al., 2009</t>
         </is>
       </c>
       <c r="B2">
@@ -493,6 +493,11 @@
           <t>control group (non-intervention, assessment only)</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cox et al., 2009 (IMI)</t>
+        </is>
+      </c>
       <c r="G2">
         <v>7.76</v>
       </c>
@@ -514,8 +519,10 @@
       <c r="M2">
         <v>4.48</v>
       </c>
-      <c r="N2">
-        <v>2.86</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -550,7 +557,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kassam-Adams et al,, 2016</t>
+          <t>Kassam-Adams et al., 2016</t>
         </is>
       </c>
       <c r="B3">
@@ -566,6 +573,11 @@
           <t>waitlist</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kassam-Adams et al., 2016 (IMI)</t>
+        </is>
+      </c>
       <c r="G3">
         <v>18.4</v>
       </c>
@@ -587,8 +599,10 @@
       <c r="M3">
         <v>13.1</v>
       </c>
-      <c r="N3">
-        <v>7.3</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -623,7 +637,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ruggiero et al,, 2015</t>
+          <t>Ruggiero et al., 2015</t>
         </is>
       </c>
       <c r="B4">
@@ -641,7 +655,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BBN (bounce-back now)</t>
+          <t>Ruggiero et al., (2015) (IMI)</t>
         </is>
       </c>
       <c r="G4">
@@ -665,8 +679,10 @@
       <c r="M4">
         <v>2.54</v>
       </c>
-      <c r="N4">
-        <v>3.35</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -701,7 +717,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ruggiero et al,, 2015</t>
+          <t>Ruggiero et al., 2015</t>
         </is>
       </c>
       <c r="B5">
@@ -714,7 +730,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BBN + ASH (adult self-help)</t>
+          <t>Ruggiero et al., (2015) (IMI + ASH)</t>
         </is>
       </c>
       <c r="G5">
@@ -745,15 +761,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaycox et al,, 2019</t>
+          <t>Schuurmans et al., 2022</t>
         </is>
       </c>
       <c r="B6">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>feasibiliy non-randomized study</t>
+          <t>feasibility study</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -761,40 +777,40 @@
           <t>none</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Full-Sample, evtl, noch Daten für Trauma-track</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Schuurmans et al., 2022 (Muse)</t>
         </is>
       </c>
       <c r="G6">
-        <v>24.48</v>
+        <v>35.83</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="I6">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>17.91</v>
+        <v>15.83</v>
       </c>
       <c r="K6">
-        <v>15.6</v>
+        <v>17.41</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="V6">
-        <v>-0.5972727272727273</v>
+        <v>-1.951219512195122</v>
       </c>
       <c r="W6">
-        <v>0.1323868705579152</v>
+        <v>0.6787678236901753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Schuurmans et al,, 2022</t>
+          <t>Schuurmans et al., 2022</t>
         </is>
       </c>
       <c r="B7">
@@ -805,45 +821,40 @@
           <t>feasibility study</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Muse</t>
+          <t>Schuurmans et al., 2022 (Daydream)</t>
         </is>
       </c>
       <c r="G7">
-        <v>35.83</v>
+        <v>39.67</v>
       </c>
       <c r="H7">
-        <v>10.25</v>
+        <v>17.39</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>15.83</v>
+        <v>36.33</v>
       </c>
       <c r="K7">
-        <v>17.41</v>
+        <v>13.05</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>-1.951219512195122</v>
+        <v>-0.1920644048303625</v>
       </c>
       <c r="W7">
-        <v>0.6787678236901753</v>
+        <v>0.3734721621939269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Schuurmans et al,, 2022</t>
+          <t>Schuurmans et al., 2022</t>
         </is>
       </c>
       <c r="B8">
@@ -856,82 +867,92 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Daydream</t>
+          <t>Schuurmans et al., 2022 (Wild divine)</t>
         </is>
       </c>
       <c r="G8">
-        <v>39.67</v>
+        <v>35.33</v>
       </c>
       <c r="H8">
-        <v>17.39</v>
+        <v>12.1</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>36.33</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>13.05</v>
+        <v>18.52</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="V8">
-        <v>-0.1920644048303625</v>
+        <v>-1.514876033057851</v>
       </c>
       <c r="W8">
-        <v>0.3734721621939269</v>
+        <v>0.7181979062826963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Schuurmans et al,, 2022</t>
+          <t>van Rosmalen-Nooijens et al., 2017</t>
         </is>
       </c>
       <c r="B9">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>feasibility study</t>
+          <t>feasibility and randomized study</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>control group (access to minimally enhanced usual care (mEUC), meaning that they were placed on a waiting list for 12 weeks with access to 24 h emergency care)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>eventuell noch Rückmeldung zu Control Group data</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Wild divine</t>
+          <t>van Rosmalen-Nooijens et al., 2017 (IMI)</t>
         </is>
       </c>
       <c r="G9">
-        <v>35.33</v>
+        <v>31.38</v>
       </c>
       <c r="H9">
-        <v>12.1</v>
+        <v>18.25</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>37.25</v>
       </c>
       <c r="K9">
-        <v>18.52</v>
+        <v>15.12</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V9">
-        <v>-1.514876033057851</v>
+        <v>0.3216438356164384</v>
       </c>
       <c r="W9">
-        <v>0.7181979062826963</v>
+        <v>0.2376255927123137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>van Rosmalen-Nooijens et al,, 2017</t>
+          <t>van Rosmalen-Nooijens et al., 2017</t>
         </is>
       </c>
       <c r="B10">
@@ -942,87 +963,33 @@
           <t>feasibility and randomized study</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>control group (access to minimally enhanced usual care (mEUC), meaning that they were placed on a waiting list for 12 weeks with access to 24 h emergency care)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>eventuell noch Rückmeldung zu Control Group data</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>original randomized</t>
+          <t>van Rosmalen-Nooijens et al., 2017 (IMI for controls)</t>
         </is>
       </c>
       <c r="G10">
-        <v>31.38</v>
+        <v>52.83</v>
       </c>
       <c r="H10">
-        <v>18.25</v>
+        <v>9.77</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>37.25</v>
+        <v>36.33</v>
       </c>
       <c r="K10">
-        <v>15.12</v>
+        <v>10.78</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>0.3216438356164384</v>
+        <v>-1.688843398157625</v>
       </c>
       <c r="W10">
-        <v>0.2376255927123137</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>van Rosmalen-Nooijens et al,, 2017</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>2017</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>feasibility and randomized study</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>randomized after waitlist</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>52.83</v>
-      </c>
-      <c r="H11">
-        <v>9.77</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>36.33</v>
-      </c>
-      <c r="K11">
-        <v>10.78</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="V11">
-        <v>-1.688843398157625</v>
-      </c>
-      <c r="W11">
         <v>0.5516786521986475</v>
       </c>
     </row>
